--- a/src/MedicalMembersListTemplate.xlsx
+++ b/src/MedicalMembersListTemplate.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomanyNashatHosney\source\Oasis - TFS\O - IBS - V2 - UI\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE984A0-ABA5-4930-BF8F-0E9F6244E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Medical List" sheetId="1" r:id="rId1"/>
@@ -20,29 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+  <si>
+    <t>Id-Iqama No.</t>
+  </si>
+  <si>
+    <t>Membership No</t>
+  </si>
   <si>
     <t>Member Name</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
     <t>Relation</t>
   </si>
   <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
+    <t>Sponsor No</t>
+  </si>
+  <si>
+    <t>Endt No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy number </t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>Staff No</t>
   </si>
   <si>
-    <t>Endt No</t>
-  </si>
-  <si>
     <t>Premium</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>Mobile No</t>
   </si>
   <si>
@@ -52,43 +67,241 @@
     <t>CCHI Status</t>
   </si>
   <si>
-    <t>Sponsor No</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Id\Iqama No.</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>Membership No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy number </t>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>26-08-1994</t>
+  </si>
+  <si>
+    <t>Husbund</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Sohag</t>
+  </si>
+  <si>
+    <t>0128775015</t>
+  </si>
+  <si>
+    <t>Egyptian</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>26-08-1995</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>0128775016</t>
+  </si>
+  <si>
+    <t>Sudanies</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>26-08-1996</t>
+  </si>
+  <si>
+    <t>0128775017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +314,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -112,41 +511,328 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -195,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,95 +1119,254 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1388888888889" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="6.28703703703704" customWidth="1"/>
+    <col min="5" max="5" width="9.42592592592593" customWidth="1"/>
+    <col min="6" max="6" width="15.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="8.71296296296296" customWidth="1"/>
+    <col min="8" max="8" width="13.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="9.28703703703704" customWidth="1"/>
+    <col min="10" max="10" width="16.1388888888889" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="5.13888888888889" customWidth="1"/>
+    <col min="13" max="13" width="9.42592592592593" customWidth="1"/>
+    <col min="14" max="14" width="10.287037037037" customWidth="1"/>
+    <col min="15" max="15" width="11.4259259259259" customWidth="1"/>
+    <col min="16" max="16" width="11.8518518518519" customWidth="1"/>
+    <col min="17" max="17" width="13.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>79879889</v>
+      </c>
+      <c r="I2">
+        <v>852</v>
+      </c>
+      <c r="J2">
+        <v>7894513</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>501</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>466</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>79879890</v>
+      </c>
+      <c r="I3">
+        <v>853</v>
+      </c>
+      <c r="J3">
+        <v>7894514</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>502</v>
+      </c>
+      <c r="N3">
+        <v>10001</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>79879891</v>
+      </c>
+      <c r="I4">
+        <v>854</v>
+      </c>
+      <c r="J4">
+        <v>7894515</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>503</v>
+      </c>
+      <c r="N4">
+        <v>10002</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/src/MedicalMembersListTemplate.xlsx
+++ b/src/MedicalMembersListTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Id-Iqama No.</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Amir</t>
   </si>
   <si>
-    <t>26-08-1994</t>
-  </si>
-  <si>
     <t>Husbund</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Mona</t>
   </si>
   <si>
-    <t>26-08-1995</t>
-  </si>
-  <si>
     <t>Wife</t>
   </si>
   <si>
@@ -121,7 +115,7 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>26-08-1996</t>
+    <t>Shady</t>
   </si>
   <si>
     <t>0128775017</t>
@@ -131,13 +125,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,6 +146,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -158,6 +159,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -165,7 +173,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,24 +196,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,22 +213,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,14 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,12 +250,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -280,14 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,150 +317,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,31 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,41 +522,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,15 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,18 +579,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,140 +644,157 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,241 +1145,240 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.287037037037" customWidth="1"/>
-    <col min="4" max="4" width="6.28703703703704" customWidth="1"/>
-    <col min="5" max="5" width="9.42592592592593" customWidth="1"/>
-    <col min="6" max="6" width="15.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="8.71296296296296" customWidth="1"/>
-    <col min="8" max="8" width="13.287037037037" customWidth="1"/>
-    <col min="9" max="9" width="9.28703703703704" customWidth="1"/>
-    <col min="10" max="10" width="16.1388888888889" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="5.13888888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.42592592592593" customWidth="1"/>
-    <col min="14" max="14" width="10.287037037037" customWidth="1"/>
-    <col min="15" max="15" width="11.4259259259259" customWidth="1"/>
-    <col min="16" max="16" width="11.8518518518519" customWidth="1"/>
-    <col min="17" max="17" width="13.8518518518519" customWidth="1"/>
+    <col min="1" max="1" width="14.1388888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.287037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.2592592592593" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.287037037037" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.71296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.287037037037" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28703703703704" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.1388888888889" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.13888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.42592592592593" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.287037037037" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.4259259259259" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.8518518518519" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.8518518518519" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
+    <row r="2" ht="13.8" spans="1:17">
+      <c r="A2" s="6">
         <v>132</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>465</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7">
+        <v>34429</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="6">
+        <v>79879889</v>
+      </c>
+      <c r="I2" s="6">
+        <v>852</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7894513</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
-        <v>79879889</v>
-      </c>
-      <c r="I2">
-        <v>852</v>
-      </c>
-      <c r="J2">
-        <v>7894513</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="6">
+        <v>501</v>
+      </c>
+      <c r="N2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
-        <v>501</v>
-      </c>
-      <c r="N2">
-        <v>10000</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" ht="13.8" spans="1:17">
+      <c r="A3" s="6">
+        <v>133</v>
+      </c>
+      <c r="B3" s="6">
+        <v>466</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="D3" s="7">
+        <v>29326</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6">
+        <v>79879890</v>
+      </c>
+      <c r="I3" s="6">
+        <v>853</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7894514</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="6">
+        <v>502</v>
+      </c>
+      <c r="N3" s="6">
+        <v>10001</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>133</v>
-      </c>
-      <c r="B3">
-        <v>466</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="4" ht="13.8" spans="1:17">
+      <c r="A4" s="6">
+        <v>134</v>
+      </c>
+      <c r="B4" s="6">
+        <v>467</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>31157</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>79879890</v>
-      </c>
-      <c r="I3">
-        <v>853</v>
-      </c>
-      <c r="J3">
-        <v>7894514</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H4" s="6">
+        <v>79879891</v>
+      </c>
+      <c r="I4" s="6">
+        <v>854</v>
+      </c>
+      <c r="J4" s="6">
+        <v>7894515</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>502</v>
-      </c>
-      <c r="N3">
-        <v>10001</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="M4" s="6">
+        <v>503</v>
+      </c>
+      <c r="N4" s="6">
+        <v>10002</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>134</v>
-      </c>
-      <c r="B4">
-        <v>467</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>79879891</v>
-      </c>
-      <c r="I4">
-        <v>854</v>
-      </c>
-      <c r="J4">
-        <v>7894515</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>503</v>
-      </c>
-      <c r="N4">
-        <v>10002</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/MedicalMembersListTemplate.xlsx
+++ b/src/MedicalMembersListTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Medical List" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
-    <t>Id-Iqama No.</t>
+    <t>Id\Iqama No.</t>
   </si>
   <si>
     <t>Membership No</t>
@@ -126,11 +126,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -152,12 +152,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -165,54 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -249,6 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -258,9 +259,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,30 +281,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,43 +317,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,139 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,15 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,148 +626,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,19 +777,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1145,28 +1145,28 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="G16 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.1388888888889" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1428571428571" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.287037037037" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.2592592592593" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.287037037037" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.71296296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.287037037037" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.28703703703704" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.1388888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.2571428571429" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.2857142857143" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.2857142857143" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.1428571428571" style="2" customWidth="1"/>
     <col min="11" max="11" width="7" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.13888888888889" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.42592592592593" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.287037037037" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.4259259259259" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.8518518518519" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13.8518518518519" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.14285714285714" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.42857142857143" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.2857142857143" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.4285714285714" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.847619047619" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.847619047619" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:17">
@@ -1222,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.8" spans="1:17">
+    <row r="2" ht="14.25" spans="1:17">
       <c r="A2" s="6">
         <v>132</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="13.8" spans="1:17">
+    <row r="3" ht="14.25" spans="1:17">
       <c r="A3" s="6">
         <v>133</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="13.8" spans="1:17">
+    <row r="4" ht="14.25" spans="1:17">
       <c r="A4" s="6">
         <v>134</v>
       </c>
